--- a/Comparison_tables_2024_0207.xlsx
+++ b/Comparison_tables_2024_0207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antalertl/Desktop/r_projects/clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFB711-BC6E-1644-B0A2-991F083D0CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA6ABF9-6E50-F14A-86B5-B260C30E28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="840" windowWidth="24600" windowHeight="17500" activeTab="4" xr2:uid="{8C4D5597-ECBF-8F47-8153-260E7CA427D0}"/>
+    <workbookView xWindow="9360" yWindow="840" windowWidth="24600" windowHeight="17500" activeTab="4" xr2:uid="{8C4D5597-ECBF-8F47-8153-260E7CA427D0}"/>
   </bookViews>
   <sheets>
     <sheet name="table_I_II_raw" sheetId="2" r:id="rId1"/>
@@ -5634,7 +5634,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Comparison_tables_2024_0207.xlsx
+++ b/Comparison_tables_2024_0207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antalertl/Desktop/r_projects/clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA6ABF9-6E50-F14A-86B5-B260C30E28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2BA897-5120-F84A-BBC6-CF7A80728234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="840" windowWidth="24600" windowHeight="17500" activeTab="4" xr2:uid="{8C4D5597-ECBF-8F47-8153-260E7CA427D0}"/>
+    <workbookView xWindow="5640" yWindow="840" windowWidth="24600" windowHeight="17500" activeTab="4" xr2:uid="{8C4D5597-ECBF-8F47-8153-260E7CA427D0}"/>
   </bookViews>
   <sheets>
     <sheet name="table_I_II_raw" sheetId="2" r:id="rId1"/>
@@ -5634,7 +5634,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
